--- a/variant_14/Задание 9/9.xlsx
+++ b/variant_14/Задание 9/9.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\К-ЕГЭ- 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -142,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +185,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="Z65" sqref="Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1710,7 +1701,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1787,7 +1778,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1864,7 +1855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1941,7 +1932,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -2018,7 +2009,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -2095,7 +2086,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -2172,7 +2163,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -2249,7 +2240,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -2326,7 +2317,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -2403,7 +2394,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43216</v>
       </c>
@@ -2480,7 +2471,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43217</v>
       </c>
@@ -2557,7 +2548,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43218</v>
       </c>
@@ -2634,7 +2625,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43219</v>
       </c>
@@ -2711,7 +2702,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43220</v>
       </c>
@@ -2787,8 +2778,12 @@
       <c r="Y31" s="4">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31" s="4">
+        <f>MAX(B2:Y31)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43221</v>
       </c>
@@ -4097,7 +4092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43238</v>
       </c>
@@ -4174,7 +4169,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43239</v>
       </c>
@@ -4251,7 +4246,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43240</v>
       </c>
@@ -4328,7 +4323,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43241</v>
       </c>
@@ -4405,7 +4400,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43242</v>
       </c>
@@ -4482,7 +4477,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43243</v>
       </c>
@@ -4559,7 +4554,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43244</v>
       </c>
@@ -4636,7 +4631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43245</v>
       </c>
@@ -4713,7 +4708,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43246</v>
       </c>
@@ -4790,7 +4785,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43247</v>
       </c>
@@ -4867,7 +4862,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43248</v>
       </c>
@@ -4944,7 +4939,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43249</v>
       </c>
@@ -5021,7 +5016,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43250</v>
       </c>
@@ -5098,7 +5093,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
@@ -5175,7 +5170,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43252</v>
       </c>
@@ -5251,8 +5246,12 @@
       <c r="Y63" s="4">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63" s="4">
+        <f>MAX(B63:Y92)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43253</v>
       </c>
@@ -5327,6 +5326,10 @@
       </c>
       <c r="Y64" s="4">
         <v>27.6</v>
+      </c>
+      <c r="Z64" s="4">
+        <f>Z63-Z31</f>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
